--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Statistics_sum.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Statistics_sum.xlsx
@@ -31,21 +31,9 @@
     <t>1,2,,,6</t>
   </si>
   <si>
-    <t>Method byte _byte(byte[] mydata)</t>
-  </si>
-  <si>
-    <t>Method Byte _Byte(Byte[] mydata)</t>
-  </si>
-  <si>
     <t>Method ByteValue _ByteValue(ByteValue[] mydata)</t>
   </si>
   <si>
-    <t>Method short _short(short[] mydata)</t>
-  </si>
-  <si>
-    <t>Method Short _Short(Short[] mydata)</t>
-  </si>
-  <si>
     <t>Method ShortValue _ShortValue(ShortValue[] mydata)</t>
   </si>
   <si>
@@ -163,21 +151,9 @@
     <t>Test _BigDecimalValue</t>
   </si>
   <si>
-    <t>Method byte _byte(byte v1, byte v2)</t>
-  </si>
-  <si>
-    <t>Method Byte _Byte(Byte v1, Byte v2)</t>
-  </si>
-  <si>
     <t>Method ByteValue _ByteValue(ByteValue v1, ByteValue v2)</t>
   </si>
   <si>
-    <t>Method short _short(short v1, short v2)</t>
-  </si>
-  <si>
-    <t>Method Short _Short(Short v1, Short v2)</t>
-  </si>
-  <si>
     <t>Method ShortValue _ShortValue(ShortValue v1, ShortValue v2)</t>
   </si>
   <si>
@@ -281,6 +257,30 @@
   </si>
   <si>
     <t>return sum(v1, v2);</t>
+  </si>
+  <si>
+    <t>Method int _byte(byte v1, byte v2)</t>
+  </si>
+  <si>
+    <t>Method Integer _Byte(Byte v1, Byte v2)</t>
+  </si>
+  <si>
+    <t>Method int _short(short v1, short v2)</t>
+  </si>
+  <si>
+    <t>Method Integer _Short(Short v1, Short v2)</t>
+  </si>
+  <si>
+    <t>Method int _byte(byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Method Integer _Byte(Byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int _short(short[] mydata)</t>
+  </si>
+  <si>
+    <t>Method Integer _Short(Short[] mydata)</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AF105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,90 +725,90 @@
   <sheetData>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="P3" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="Y3" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
       <c r="AC3" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>2</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>2</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>2</v>
@@ -837,43 +837,43 @@
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>3</v>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>3</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G6" s="8">
         <v>5</v>
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L6" s="8">
         <v>5</v>
@@ -926,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="8">
         <v>5</v>
@@ -938,28 +938,28 @@
         <v>6</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W6" s="5">
         <v>3</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="5">
         <v>3</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE6" s="5">
         <v>3</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G7" s="8">
         <v>-5</v>
@@ -985,7 +985,7 @@
         <v>-6</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L7" s="8">
         <v>-5</v>
@@ -997,7 +997,7 @@
         <v>-6</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="8">
         <v>-5</v>
@@ -1009,28 +1009,28 @@
         <v>-6</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W7" s="5">
         <v>3</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA7" s="5">
         <v>3</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="5">
         <v>3</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L8" s="8">
         <v>5</v>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="8">
         <v>5</v>
@@ -1076,24 +1076,24 @@
         <v>5</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W8" s="5"/>
       <c r="Y8" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AC8" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE8" s="5"/>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="B9" s="3"/>
       <c r="D9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>4</v>
@@ -1142,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="8" t="s">
         <v>4</v>
@@ -1151,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>4</v>
@@ -1164,7 +1164,7 @@
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8">
         <v>-100</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="5"/>
       <c r="P10" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="5"/>
       <c r="U10" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W10" s="5">
         <v>-4</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="5">
         <v>-4</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="5">
         <v>-4</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="5">
         <v>1</v>
@@ -1259,27 +1259,27 @@
         <v>6</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="Y11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AC11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1309,90 +1309,90 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="P16" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="U16" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="Y16" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AC16" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>2</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z17" s="7" t="s">
         <v>2</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>2</v>
@@ -1423,43 +1423,43 @@
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V18" s="8" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z18" s="8" t="s">
         <v>3</v>
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD18" s="8" t="s">
         <v>3</v>
@@ -1490,7 +1490,7 @@
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G19" s="8">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L19" s="8">
         <v>5</v>
@@ -1514,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="8">
         <v>5</v>
@@ -1526,28 +1526,28 @@
         <v>6</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W19" s="5">
         <v>3</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA19" s="5">
         <v>3</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE19" s="5">
         <v>3</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G20" s="8">
         <v>-5</v>
@@ -1573,7 +1573,7 @@
         <v>-6</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L20" s="8">
         <v>-5</v>
@@ -1585,7 +1585,7 @@
         <v>-6</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="8">
         <v>-5</v>
@@ -1597,28 +1597,28 @@
         <v>-6</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W20" s="5">
         <v>3</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA20" s="5">
         <v>3</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE20" s="5">
         <v>3</v>
@@ -1626,13 +1626,13 @@
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G21" s="8">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L21" s="8">
         <v>5</v>
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="8">
         <v>5</v>
@@ -1664,24 +1664,24 @@
         <v>5</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W21" s="5"/>
       <c r="Y21" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AC21" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE21" s="5"/>
     </row>
@@ -1689,7 +1689,7 @@
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8">
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V22" s="8" t="s">
         <v>4</v>
@@ -1730,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z22" s="8" t="s">
         <v>4</v>
@@ -1739,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD22" s="8" t="s">
         <v>4</v>
@@ -1752,7 +1752,7 @@
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="8">
         <v>-100</v>
@@ -1764,40 +1764,40 @@
         <v>0</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="5"/>
       <c r="P23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="5"/>
       <c r="U23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W23" s="5">
         <v>-4</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA23" s="5">
         <v>-4</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE23" s="5">
         <v>-4</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L24" s="5">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="5">
         <v>1</v>
@@ -1847,27 +1847,27 @@
         <v>6</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="Y24" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AC24" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1897,90 +1897,90 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="P29" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="U29" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="Y29" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AC29" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>2</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>2</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD30" s="7" t="s">
         <v>2</v>
@@ -2011,43 +2011,43 @@
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V31" s="8" t="s">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z31" s="8" t="s">
         <v>3</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD31" s="8" t="s">
         <v>3</v>
@@ -2078,7 +2078,7 @@
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G32" s="8">
         <v>5</v>
@@ -2090,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L32" s="8">
         <v>5</v>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q32" s="8">
         <v>5</v>
@@ -2114,28 +2114,28 @@
         <v>6</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W32" s="5">
         <v>3</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA32" s="5">
         <v>3</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD32" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE32" s="5">
         <v>3</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G33" s="8">
         <v>-5</v>
@@ -2161,7 +2161,7 @@
         <v>-6</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L33" s="8">
         <v>-5</v>
@@ -2173,7 +2173,7 @@
         <v>-6</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q33" s="8">
         <v>-5</v>
@@ -2185,28 +2185,28 @@
         <v>-6</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W33" s="5">
         <v>3</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA33" s="5">
         <v>3</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD33" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE33" s="5">
         <v>3</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G34" s="8">
         <v>5</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L34" s="8">
         <v>5</v>
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q34" s="8">
         <v>5</v>
@@ -2252,24 +2252,24 @@
         <v>5</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W34" s="5"/>
       <c r="Y34" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AC34" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE34" s="5"/>
     </row>
@@ -2277,7 +2277,7 @@
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8">
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V35" s="8" t="s">
         <v>4</v>
@@ -2318,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z35" s="8" t="s">
         <v>4</v>
@@ -2327,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD35" s="8" t="s">
         <v>4</v>
@@ -2340,7 +2340,7 @@
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G36" s="8">
         <v>-100</v>
@@ -2352,40 +2352,40 @@
         <v>0</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="5"/>
       <c r="P36" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="5"/>
       <c r="U36" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W36" s="5">
         <v>-4</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA36" s="5">
         <v>-4</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE36" s="5">
         <v>-4</v>
@@ -2393,13 +2393,13 @@
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="5">
         <v>1</v>
@@ -2435,27 +2435,27 @@
         <v>6</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="Y37" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
       <c r="AC37" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2509,90 +2509,90 @@
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="P42" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="U42" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="Y42" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
       <c r="AC42" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>2</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z43" s="7" t="s">
         <v>2</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD43" s="7" t="s">
         <v>2</v>
@@ -2623,43 +2623,43 @@
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V44" s="8" t="s">
         <v>3</v>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z44" s="8" t="s">
         <v>3</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD44" s="8" t="s">
         <v>3</v>
@@ -2690,7 +2690,7 @@
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G45" s="8">
         <v>5</v>
@@ -2702,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L45" s="8">
         <v>5</v>
@@ -2714,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q45" s="8">
         <v>5</v>
@@ -2726,28 +2726,28 @@
         <v>6</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W45" s="5">
         <v>3</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA45" s="5">
         <v>3</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD45" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE45" s="5">
         <v>3</v>
@@ -2755,13 +2755,13 @@
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G46" s="8">
         <v>-5</v>
@@ -2773,7 +2773,7 @@
         <v>-6</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L46" s="8">
         <v>-5</v>
@@ -2785,7 +2785,7 @@
         <v>-6</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q46" s="8">
         <v>-5</v>
@@ -2797,28 +2797,28 @@
         <v>-6</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W46" s="5">
         <v>3</v>
       </c>
       <c r="Y46" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA46" s="5">
         <v>3</v>
       </c>
       <c r="AC46" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD46" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE46" s="5">
         <v>3</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G47" s="8">
         <v>5</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L47" s="8">
         <v>5</v>
@@ -2854,7 +2854,7 @@
         <v>5</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q47" s="8">
         <v>5</v>
@@ -2864,24 +2864,24 @@
         <v>5</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W47" s="5"/>
       <c r="Y47" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AC47" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE47" s="5"/>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="B48" s="3"/>
       <c r="D48" s="3"/>
       <c r="F48" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G48" s="8">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8">
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V48" s="8" t="s">
         <v>4</v>
@@ -2930,7 +2930,7 @@
         <v>9</v>
       </c>
       <c r="Y48" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z48" s="8" t="s">
         <v>4</v>
@@ -2939,7 +2939,7 @@
         <v>9</v>
       </c>
       <c r="AC48" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD48" s="8" t="s">
         <v>4</v>
@@ -2952,7 +2952,7 @@
       <c r="B49" s="3"/>
       <c r="D49" s="3"/>
       <c r="F49" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G49" s="8">
         <v>-100</v>
@@ -2964,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="5"/>
       <c r="P49" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="5"/>
       <c r="U49" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W49" s="5">
         <v>-4</v>
       </c>
       <c r="Y49" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA49" s="5">
         <v>-4</v>
       </c>
       <c r="AC49" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD49" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE49" s="5">
         <v>-4</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -3023,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L50" s="5">
         <v>1</v>
@@ -3035,7 +3035,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="5">
         <v>1</v>
@@ -3047,27 +3047,27 @@
         <v>6</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
       <c r="Y50" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
       <c r="AC50" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD50" s="8"/>
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -3097,90 +3097,90 @@
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="K55" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="P55" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="U55" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
       <c r="Y55" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AC55" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>0</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S56" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U56" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V56" s="7" t="s">
         <v>2</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z56" s="7" t="s">
         <v>2</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD56" s="7" t="s">
         <v>2</v>
@@ -3211,43 +3211,43 @@
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
       <c r="F57" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N57" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S57" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V57" s="8" t="s">
         <v>3</v>
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="Y57" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z57" s="8" t="s">
         <v>3</v>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD57" s="8" t="s">
         <v>3</v>
@@ -3278,7 +3278,7 @@
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
       <c r="F58" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G58" s="8">
         <v>5</v>
@@ -3290,7 +3290,7 @@
         <v>6</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L58" s="8">
         <v>5</v>
@@ -3302,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q58" s="8">
         <v>5</v>
@@ -3314,28 +3314,28 @@
         <v>6</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W58" s="5">
         <v>3</v>
       </c>
       <c r="Y58" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z58" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA58" s="5">
         <v>3</v>
       </c>
       <c r="AC58" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD58" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE58" s="5">
         <v>3</v>
@@ -3343,13 +3343,13 @@
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G59" s="8">
         <v>-5</v>
@@ -3361,7 +3361,7 @@
         <v>-6</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L59" s="8">
         <v>-5</v>
@@ -3373,7 +3373,7 @@
         <v>-6</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q59" s="8">
         <v>-5</v>
@@ -3385,28 +3385,28 @@
         <v>-6</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W59" s="5">
         <v>3</v>
       </c>
       <c r="Y59" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z59" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA59" s="5">
         <v>3</v>
       </c>
       <c r="AC59" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD59" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE59" s="5">
         <v>3</v>
@@ -3414,13 +3414,13 @@
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G60" s="8">
         <v>5</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L60" s="8">
         <v>5</v>
@@ -3442,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q60" s="8">
         <v>5</v>
@@ -3452,24 +3452,24 @@
         <v>5</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V60" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W60" s="5"/>
       <c r="Y60" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA60" s="5"/>
       <c r="AC60" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE60" s="5"/>
     </row>
@@ -3477,7 +3477,7 @@
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
       <c r="F61" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G61" s="8">
         <v>1</v>
@@ -3489,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8">
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q61" s="8"/>
       <c r="R61" s="8">
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V61" s="8" t="s">
         <v>4</v>
@@ -3518,7 +3518,7 @@
         <v>9</v>
       </c>
       <c r="Y61" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z61" s="8" t="s">
         <v>4</v>
@@ -3527,7 +3527,7 @@
         <v>9</v>
       </c>
       <c r="AC61" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD61" s="8" t="s">
         <v>4</v>
@@ -3540,7 +3540,7 @@
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
       <c r="F62" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G62" s="8">
         <v>-100</v>
@@ -3552,40 +3552,40 @@
         <v>0</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="5"/>
       <c r="P62" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="5"/>
       <c r="U62" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V62" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W62" s="5">
         <v>-4</v>
       </c>
       <c r="Y62" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z62" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA62" s="5">
         <v>-4</v>
       </c>
       <c r="AC62" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD62" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE62" s="5">
         <v>-4</v>
@@ -3593,13 +3593,13 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -3611,7 +3611,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L63" s="5">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q63" s="5">
         <v>1</v>
@@ -3635,27 +3635,27 @@
         <v>6</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
       <c r="Y63" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
       <c r="AC63" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD63" s="8"/>
       <c r="AE63" s="8"/>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3678,90 +3678,90 @@
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="K68" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="P68" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
       <c r="U68" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="Y68" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
       <c r="AC68" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U69" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="V69" s="7" t="s">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z69" s="7" t="s">
         <v>2</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD69" s="7" t="s">
         <v>2</v>
@@ -3792,43 +3792,43 @@
       <c r="B70" s="3"/>
       <c r="D70" s="3"/>
       <c r="F70" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V70" s="8" t="s">
         <v>3</v>
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="Y70" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z70" s="8" t="s">
         <v>3</v>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="AC70" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD70" s="8" t="s">
         <v>3</v>
@@ -3859,7 +3859,7 @@
       <c r="B71" s="3"/>
       <c r="D71" s="3"/>
       <c r="F71" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G71" s="8">
         <v>5</v>
@@ -3871,7 +3871,7 @@
         <v>6</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L71" s="8">
         <v>5</v>
@@ -3883,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q71" s="8">
         <v>5</v>
@@ -3895,28 +3895,28 @@
         <v>6</v>
       </c>
       <c r="U71" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W71" s="5">
         <v>3</v>
       </c>
       <c r="Y71" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z71" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA71" s="5">
         <v>3</v>
       </c>
       <c r="AC71" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD71" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE71" s="5">
         <v>3</v>
@@ -3924,13 +3924,13 @@
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G72" s="8">
         <v>-5</v>
@@ -3942,7 +3942,7 @@
         <v>-6</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L72" s="8">
         <v>-5</v>
@@ -3954,7 +3954,7 @@
         <v>-6</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q72" s="8">
         <v>-5</v>
@@ -3966,28 +3966,28 @@
         <v>-6</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W72" s="5">
         <v>3</v>
       </c>
       <c r="Y72" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z72" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA72" s="5">
         <v>3</v>
       </c>
       <c r="AC72" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD72" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE72" s="5">
         <v>3</v>
@@ -3995,13 +3995,13 @@
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G73" s="8">
         <v>5</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L73" s="8">
         <v>5</v>
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q73" s="8">
         <v>5</v>
@@ -4033,24 +4033,24 @@
         <v>5</v>
       </c>
       <c r="U73" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W73" s="5"/>
       <c r="Y73" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA73" s="5"/>
       <c r="AC73" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE73" s="5"/>
     </row>
@@ -4058,7 +4058,7 @@
       <c r="B74" s="3"/>
       <c r="D74" s="3"/>
       <c r="F74" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G74" s="8">
         <v>1</v>
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8">
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8">
@@ -4090,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="U74" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="V74" s="8" t="s">
         <v>4</v>
@@ -4099,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="Y74" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z74" s="8" t="s">
         <v>4</v>
@@ -4108,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="AC74" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD74" s="8" t="s">
         <v>4</v>
@@ -4121,7 +4121,7 @@
       <c r="B75" s="3"/>
       <c r="D75" s="3"/>
       <c r="F75" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G75" s="8">
         <v>-100</v>
@@ -4133,40 +4133,40 @@
         <v>0</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="5"/>
       <c r="P75" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="5"/>
       <c r="U75" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W75" s="5">
         <v>-4</v>
       </c>
       <c r="Y75" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA75" s="5">
         <v>-4</v>
       </c>
       <c r="AC75" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE75" s="5">
         <v>-4</v>
@@ -4174,13 +4174,13 @@
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L76" s="5">
         <v>1</v>
@@ -4204,7 +4204,7 @@
         <v>6</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q76" s="5">
         <v>1</v>
@@ -4216,27 +4216,27 @@
         <v>6</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
       <c r="Y76" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8"/>
       <c r="AC76" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD76" s="8"/>
       <c r="AE76" s="8"/>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -4302,67 +4302,67 @@
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="P84" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="Y84" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z84" s="10"/>
       <c r="AA84" s="10"/>
       <c r="AC84" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD84" s="10"/>
       <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N85" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S85" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Y85" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z85" s="7" t="s">
         <v>2</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD85" s="7" t="s">
         <v>2</v>
@@ -4382,31 +4382,31 @@
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K86" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S86" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y86" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z86" s="8" t="s">
         <v>3</v>
@@ -4415,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD86" s="8" t="s">
         <v>3</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K87" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L87" s="8">
         <v>5</v>
@@ -4438,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q87" s="8">
         <v>5</v>
@@ -4450,19 +4450,19 @@
         <v>6</v>
       </c>
       <c r="Y87" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z87" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA87" s="5">
         <v>3</v>
       </c>
       <c r="AC87" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD87" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE87" s="5">
         <v>3</v>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L88" s="8">
         <v>-5</v>
@@ -4488,7 +4488,7 @@
         <v>-6</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q88" s="8">
         <v>-5</v>
@@ -4500,19 +4500,19 @@
         <v>-6</v>
       </c>
       <c r="Y88" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z88" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA88" s="5">
         <v>3</v>
       </c>
       <c r="AC88" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD88" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE88" s="5">
         <v>3</v>
@@ -4520,13 +4520,13 @@
     </row>
     <row r="89" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L89" s="8">
         <v>5</v>
@@ -4536,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q89" s="8">
         <v>5</v>
@@ -4546,23 +4546,23 @@
         <v>5</v>
       </c>
       <c r="Y89" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z89" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA89" s="5"/>
       <c r="AC89" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE89" s="5"/>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K90" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8">
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q90" s="8"/>
       <c r="R90" s="8">
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="Y90" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z90" s="8" t="s">
         <v>4</v>
@@ -4591,7 +4591,7 @@
         <v>9</v>
       </c>
       <c r="AC90" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD90" s="8" t="s">
         <v>4</v>
@@ -4602,31 +4602,31 @@
     </row>
     <row r="91" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K91" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="5"/>
       <c r="P91" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
       <c r="S91" s="5"/>
       <c r="Y91" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z91" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA91" s="5">
         <v>-4</v>
       </c>
       <c r="AC91" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD91" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE91" s="5">
         <v>-4</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K92" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L92" s="5">
         <v>1</v>
@@ -4646,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q92" s="5">
         <v>1</v>
@@ -4658,12 +4658,12 @@
         <v>6</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
       <c r="AC92" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD92" s="8"/>
       <c r="AE92" s="8"/>
@@ -4681,67 +4681,67 @@
     </row>
     <row r="96" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="P96" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
       <c r="Y96" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z96" s="10"/>
       <c r="AA96" s="10"/>
       <c r="AC96" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AD96" s="10"/>
       <c r="AE96" s="10"/>
     </row>
     <row r="97" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N97" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="S97" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Y97" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z97" s="7" t="s">
         <v>2</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AC97" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD97" s="7" t="s">
         <v>2</v>
@@ -4761,31 +4761,31 @@
     </row>
     <row r="98" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K98" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N98" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S98" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y98" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Z98" s="8" t="s">
         <v>3</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AC98" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD98" s="8" t="s">
         <v>3</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="99" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K99" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L99" s="8">
         <v>5</v>
@@ -4817,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q99" s="8">
         <v>5</v>
@@ -4829,19 +4829,19 @@
         <v>6</v>
       </c>
       <c r="Y99" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z99" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA99" s="5">
         <v>3</v>
       </c>
       <c r="AC99" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AD99" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE99" s="5">
         <v>3</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="100" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L100" s="8">
         <v>-5</v>
@@ -4867,7 +4867,7 @@
         <v>-6</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q100" s="8">
         <v>-5</v>
@@ -4879,19 +4879,19 @@
         <v>-6</v>
       </c>
       <c r="Y100" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Z100" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AA100" s="5">
         <v>3</v>
       </c>
       <c r="AC100" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AD100" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AE100" s="5">
         <v>3</v>
@@ -4899,13 +4899,13 @@
     </row>
     <row r="101" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L101" s="8">
         <v>5</v>
@@ -4915,7 +4915,7 @@
         <v>5</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q101" s="8">
         <v>5</v>
@@ -4925,23 +4925,23 @@
         <v>5</v>
       </c>
       <c r="Y101" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z101" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AA101" s="5"/>
       <c r="AC101" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AE101" s="5"/>
     </row>
     <row r="102" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K102" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8">
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Q102" s="8"/>
       <c r="R102" s="8">
@@ -4961,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="Y102" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z102" s="8" t="s">
         <v>4</v>
@@ -4970,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="AC102" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD102" s="8" t="s">
         <v>4</v>
@@ -4981,31 +4981,31 @@
     </row>
     <row r="103" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K103" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="5"/>
       <c r="P103" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
       <c r="S103" s="5"/>
       <c r="Y103" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z103" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AA103" s="5">
         <v>-4</v>
       </c>
       <c r="AC103" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD103" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE103" s="5">
         <v>-4</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="104" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K104" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L104" s="5">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="P104" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q104" s="5">
         <v>1</v>
@@ -5037,12 +5037,12 @@
         <v>6</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8"/>
       <c r="AC104" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD104" s="8"/>
       <c r="AE104" s="8"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Statistics_sum.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Statistics_sum.xlsx
@@ -287,10 +287,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -358,7 +359,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -681,7 +682,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:AF105"/>
+  <dimension ref="B3:AE105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -689,38 +690,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="66.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="79.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="2" collapsed="1"/>
-    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13" style="2" customWidth="1"/>
-    <col min="33" max="34" width="13" style="2" customWidth="1" collapsed="1"/>
-    <col min="35" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="66.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="79.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="10" max="10" style="2" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="15" max="15" style="2" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="2" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="2" width="9.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="2" width="13.0" collapsed="true"/>
+    <col min="33" max="34" customWidth="true" style="2" width="13.0" collapsed="true"/>
+    <col min="35" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
@@ -1081,7 +1082,9 @@
       <c r="V8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="5"/>
+      <c r="W8" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y8" s="8" t="s">
         <v>70</v>
       </c>
@@ -1262,7 +1265,9 @@
         <v>73</v>
       </c>
       <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="W11" s="8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y11" s="5" t="s">
         <v>73</v>
       </c>
@@ -1669,7 +1674,9 @@
       <c r="V21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="W21" s="5"/>
+      <c r="W21" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y21" s="8" t="s">
         <v>70</v>
       </c>
@@ -1850,7 +1857,9 @@
         <v>73</v>
       </c>
       <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
+      <c r="W24" s="8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y24" s="5" t="s">
         <v>73</v>
       </c>
@@ -2257,7 +2266,9 @@
       <c r="V34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="W34" s="5"/>
+      <c r="W34" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y34" s="8" t="s">
         <v>70</v>
       </c>
@@ -2438,7 +2449,9 @@
         <v>73</v>
       </c>
       <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
+      <c r="W37" s="8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y37" s="5" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +2882,9 @@
       <c r="V47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="W47" s="5"/>
+      <c r="W47" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y47" s="8" t="s">
         <v>70</v>
       </c>
@@ -3050,7 +3065,9 @@
         <v>73</v>
       </c>
       <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
+      <c r="W50" s="8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y50" s="5" t="s">
         <v>73</v>
       </c>
@@ -3457,7 +3474,9 @@
       <c r="V60" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="W60" s="5"/>
+      <c r="W60" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y60" s="8" t="s">
         <v>70</v>
       </c>
@@ -3638,7 +3657,9 @@
         <v>73</v>
       </c>
       <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
+      <c r="W63" s="8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y63" s="5" t="s">
         <v>73</v>
       </c>
@@ -4038,7 +4059,9 @@
       <c r="V73" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="5"/>
+      <c r="W73" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y73" s="8" t="s">
         <v>70</v>
       </c>
@@ -4219,7 +4242,9 @@
         <v>73</v>
       </c>
       <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
+      <c r="W76" s="8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="Y76" s="5" t="s">
         <v>73</v>
       </c>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Statistics_sum.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Statistics_sum.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FD7E68-C3FC-403D-8C79-4CDDF8808666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="10995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="13" r:id="rId1"/>
@@ -31,12 +37,6 @@
     <t>1,2,,,6</t>
   </si>
   <si>
-    <t>Method ByteValue _ByteValue(ByteValue[] mydata)</t>
-  </si>
-  <si>
-    <t>Method ShortValue _ShortValue(ShortValue[] mydata)</t>
-  </si>
-  <si>
     <t>Method int _int(int[] mydata)</t>
   </si>
   <si>
@@ -151,12 +151,6 @@
     <t>Test _BigDecimalValue</t>
   </si>
   <si>
-    <t>Method ByteValue _ByteValue(ByteValue v1, ByteValue v2)</t>
-  </si>
-  <si>
-    <t>Method ShortValue _ShortValue(ShortValue v1, ShortValue v2)</t>
-  </si>
-  <si>
     <t>Method int _int(int v1, int v2)</t>
   </si>
   <si>
@@ -281,17 +275,28 @@
   </si>
   <si>
     <t>Method Integer _Short(Short[] mydata)</t>
+  </si>
+  <si>
+    <t>Method Integer _ByteValue(ByteValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method Integer _ByteValue(ByteValue v1, ByteValue v2)</t>
+  </si>
+  <si>
+    <t>Method Integer _ShortValue(ShortValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method Integer _ShortValue(ShortValue v1, ShortValue v2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -359,7 +364,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -437,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,9 +475,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,6 +527,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,136 +719,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="66.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="79.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="10" max="10" style="2" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="15" max="15" style="2" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="2" width="9.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="2" width="9.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="4.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="2" width="13.0" collapsed="true"/>
-    <col min="33" max="34" customWidth="true" style="2" width="13.0" collapsed="true"/>
-    <col min="35" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="66.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="79.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="4.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="2" collapsed="1"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" style="2" collapsed="1"/>
+    <col min="16" max="16" width="4.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="4.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="4.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="4.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="34" width="13" style="2" customWidth="1" collapsed="1"/>
+    <col min="35" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="P3" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="Y3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
       <c r="AC3" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>2</v>
@@ -818,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>2</v>
@@ -827,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>2</v>
@@ -838,43 +875,43 @@
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>3</v>
@@ -883,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>3</v>
@@ -892,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>3</v>
@@ -903,7 +940,7 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="8">
         <v>5</v>
@@ -915,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L6" s="8">
         <v>5</v>
@@ -927,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="8">
         <v>5</v>
@@ -939,28 +976,28 @@
         <v>6</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W6" s="5">
         <v>3</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="5">
         <v>3</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE6" s="5">
         <v>3</v>
@@ -968,13 +1005,13 @@
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" s="8">
         <v>-5</v>
@@ -986,7 +1023,7 @@
         <v>-6</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L7" s="8">
         <v>-5</v>
@@ -998,7 +1035,7 @@
         <v>-6</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="8">
         <v>-5</v>
@@ -1010,28 +1047,28 @@
         <v>-6</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W7" s="5">
         <v>3</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA7" s="5">
         <v>3</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE7" s="5">
         <v>3</v>
@@ -1039,13 +1076,13 @@
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
@@ -1057,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L8" s="8">
         <v>5</v>
@@ -1067,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="8">
         <v>5</v>
@@ -1077,26 +1114,26 @@
         <v>5</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W8" s="5" t="n">
-        <v>0.0</v>
+        <v>72</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AC8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE8" s="5"/>
     </row>
@@ -1104,7 +1141,7 @@
       <c r="B9" s="3"/>
       <c r="D9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1116,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8">
@@ -1126,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8">
@@ -1136,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>4</v>
@@ -1145,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z9" s="8" t="s">
         <v>4</v>
@@ -1154,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>4</v>
@@ -1167,7 +1204,7 @@
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G10" s="8">
         <v>-100</v>
@@ -1179,40 +1216,40 @@
         <v>0</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="5"/>
       <c r="P10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="5"/>
       <c r="U10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W10" s="5">
         <v>-4</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA10" s="5">
         <v>-4</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE10" s="5">
         <v>-4</v>
@@ -1220,13 +1257,13 @@
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1238,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
@@ -1250,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="5">
         <v>1</v>
@@ -1262,29 +1299,29 @@
         <v>6</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V11" s="8"/>
-      <c r="W11" s="8" t="n">
-        <v>0.0</v>
+      <c r="W11" s="8">
+        <v>0</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AC11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1314,90 +1351,90 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="P16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="U16" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="Y16" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AC16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>2</v>
@@ -1406,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="7" t="s">
         <v>2</v>
@@ -1415,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>2</v>
@@ -1428,43 +1465,43 @@
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V18" s="8" t="s">
         <v>3</v>
@@ -1473,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z18" s="8" t="s">
         <v>3</v>
@@ -1482,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD18" s="8" t="s">
         <v>3</v>
@@ -1495,7 +1532,7 @@
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G19" s="8">
         <v>5</v>
@@ -1507,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L19" s="8">
         <v>5</v>
@@ -1519,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="8">
         <v>5</v>
@@ -1531,28 +1568,28 @@
         <v>6</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W19" s="5">
         <v>3</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA19" s="5">
         <v>3</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE19" s="5">
         <v>3</v>
@@ -1560,13 +1597,13 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G20" s="8">
         <v>-5</v>
@@ -1578,7 +1615,7 @@
         <v>-6</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L20" s="8">
         <v>-5</v>
@@ -1590,7 +1627,7 @@
         <v>-6</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="8">
         <v>-5</v>
@@ -1602,28 +1639,28 @@
         <v>-6</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W20" s="5">
         <v>3</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA20" s="5">
         <v>3</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE20" s="5">
         <v>3</v>
@@ -1631,13 +1668,13 @@
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G21" s="8">
         <v>5</v>
@@ -1649,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L21" s="8">
         <v>5</v>
@@ -1659,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="8">
         <v>5</v>
@@ -1669,26 +1706,26 @@
         <v>5</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W21" s="5" t="n">
-        <v>0.0</v>
+        <v>72</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AC21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE21" s="5"/>
     </row>
@@ -1696,7 +1733,7 @@
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -1708,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8">
@@ -1718,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8">
@@ -1728,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V22" s="8" t="s">
         <v>4</v>
@@ -1737,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z22" s="8" t="s">
         <v>4</v>
@@ -1746,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD22" s="8" t="s">
         <v>4</v>
@@ -1759,7 +1796,7 @@
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G23" s="8">
         <v>-100</v>
@@ -1771,40 +1808,40 @@
         <v>0</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="5"/>
       <c r="P23" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="5"/>
       <c r="U23" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W23" s="5">
         <v>-4</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA23" s="5">
         <v>-4</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE23" s="5">
         <v>-4</v>
@@ -1812,13 +1849,13 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -1830,7 +1867,7 @@
         <v>6</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L24" s="5">
         <v>1</v>
@@ -1842,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="5">
         <v>1</v>
@@ -1854,29 +1891,29 @@
         <v>6</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V24" s="8"/>
-      <c r="W24" s="8" t="n">
-        <v>0.0</v>
+      <c r="W24" s="8">
+        <v>0</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AC24" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1906,90 +1943,90 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="P29" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="U29" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="Y29" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AC29" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>2</v>
@@ -1998,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>2</v>
@@ -2007,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD30" s="7" t="s">
         <v>2</v>
@@ -2020,43 +2057,43 @@
       <c r="B31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V31" s="8" t="s">
         <v>3</v>
@@ -2065,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z31" s="8" t="s">
         <v>3</v>
@@ -2074,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD31" s="8" t="s">
         <v>3</v>
@@ -2087,7 +2124,7 @@
       <c r="B32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G32" s="8">
         <v>5</v>
@@ -2099,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L32" s="8">
         <v>5</v>
@@ -2111,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q32" s="8">
         <v>5</v>
@@ -2123,28 +2160,28 @@
         <v>6</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W32" s="5">
         <v>3</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA32" s="5">
         <v>3</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD32" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE32" s="5">
         <v>3</v>
@@ -2152,13 +2189,13 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G33" s="8">
         <v>-5</v>
@@ -2170,7 +2207,7 @@
         <v>-6</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L33" s="8">
         <v>-5</v>
@@ -2182,7 +2219,7 @@
         <v>-6</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q33" s="8">
         <v>-5</v>
@@ -2194,28 +2231,28 @@
         <v>-6</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W33" s="5">
         <v>3</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA33" s="5">
         <v>3</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD33" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE33" s="5">
         <v>3</v>
@@ -2223,13 +2260,13 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G34" s="8">
         <v>5</v>
@@ -2241,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L34" s="8">
         <v>5</v>
@@ -2251,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="8">
         <v>5</v>
@@ -2261,26 +2298,26 @@
         <v>5</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W34" s="5" t="n">
-        <v>0.0</v>
+        <v>72</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AC34" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE34" s="5"/>
     </row>
@@ -2288,7 +2325,7 @@
       <c r="B35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -2300,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8">
@@ -2310,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8">
@@ -2320,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V35" s="8" t="s">
         <v>4</v>
@@ -2329,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z35" s="8" t="s">
         <v>4</v>
@@ -2338,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD35" s="8" t="s">
         <v>4</v>
@@ -2351,7 +2388,7 @@
       <c r="B36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G36" s="8">
         <v>-100</v>
@@ -2363,40 +2400,40 @@
         <v>0</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="5"/>
       <c r="P36" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="5"/>
       <c r="U36" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W36" s="5">
         <v>-4</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA36" s="5">
         <v>-4</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE36" s="5">
         <v>-4</v>
@@ -2404,13 +2441,13 @@
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -2422,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L37" s="5">
         <v>1</v>
@@ -2434,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q37" s="5">
         <v>1</v>
@@ -2446,29 +2483,29 @@
         <v>6</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V37" s="8"/>
-      <c r="W37" s="8" t="n">
-        <v>0.0</v>
+      <c r="W37" s="8">
+        <v>0</v>
       </c>
       <c r="Y37" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
       <c r="AC37" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2522,90 +2559,90 @@
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="P42" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="U42" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="Y42" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
       <c r="AC42" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U43" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>2</v>
@@ -2614,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z43" s="7" t="s">
         <v>2</v>
@@ -2623,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD43" s="7" t="s">
         <v>2</v>
@@ -2636,43 +2673,43 @@
       <c r="B44" s="3"/>
       <c r="D44" s="3"/>
       <c r="F44" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V44" s="8" t="s">
         <v>3</v>
@@ -2681,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z44" s="8" t="s">
         <v>3</v>
@@ -2690,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD44" s="8" t="s">
         <v>3</v>
@@ -2703,7 +2740,7 @@
       <c r="B45" s="3"/>
       <c r="D45" s="3"/>
       <c r="F45" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G45" s="8">
         <v>5</v>
@@ -2715,7 +2752,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L45" s="8">
         <v>5</v>
@@ -2727,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q45" s="8">
         <v>5</v>
@@ -2739,28 +2776,28 @@
         <v>6</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W45" s="5">
         <v>3</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA45" s="5">
         <v>3</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD45" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE45" s="5">
         <v>3</v>
@@ -2768,13 +2805,13 @@
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G46" s="8">
         <v>-5</v>
@@ -2786,7 +2823,7 @@
         <v>-6</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L46" s="8">
         <v>-5</v>
@@ -2798,7 +2835,7 @@
         <v>-6</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="8">
         <v>-5</v>
@@ -2810,28 +2847,28 @@
         <v>-6</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W46" s="5">
         <v>3</v>
       </c>
       <c r="Y46" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA46" s="5">
         <v>3</v>
       </c>
       <c r="AC46" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD46" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE46" s="5">
         <v>3</v>
@@ -2839,13 +2876,13 @@
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G47" s="8">
         <v>5</v>
@@ -2857,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L47" s="8">
         <v>5</v>
@@ -2867,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q47" s="8">
         <v>5</v>
@@ -2877,26 +2914,26 @@
         <v>5</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W47" s="5" t="n">
-        <v>0.0</v>
+        <v>72</v>
+      </c>
+      <c r="W47" s="5">
+        <v>0</v>
       </c>
       <c r="Y47" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AC47" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE47" s="5"/>
     </row>
@@ -2904,7 +2941,7 @@
       <c r="B48" s="3"/>
       <c r="D48" s="3"/>
       <c r="F48" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G48" s="8">
         <v>1</v>
@@ -2916,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8">
@@ -2926,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8">
@@ -2936,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V48" s="8" t="s">
         <v>4</v>
@@ -2945,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="Y48" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z48" s="8" t="s">
         <v>4</v>
@@ -2954,7 +2991,7 @@
         <v>9</v>
       </c>
       <c r="AC48" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD48" s="8" t="s">
         <v>4</v>
@@ -2967,7 +3004,7 @@
       <c r="B49" s="3"/>
       <c r="D49" s="3"/>
       <c r="F49" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G49" s="8">
         <v>-100</v>
@@ -2979,40 +3016,40 @@
         <v>0</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="5"/>
       <c r="P49" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="5"/>
       <c r="U49" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W49" s="5">
         <v>-4</v>
       </c>
       <c r="Y49" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA49" s="5">
         <v>-4</v>
       </c>
       <c r="AC49" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD49" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE49" s="5">
         <v>-4</v>
@@ -3020,13 +3057,13 @@
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -3038,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L50" s="5">
         <v>1</v>
@@ -3050,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q50" s="5">
         <v>1</v>
@@ -3062,29 +3099,29 @@
         <v>6</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V50" s="8"/>
-      <c r="W50" s="8" t="n">
-        <v>0.0</v>
+      <c r="W50" s="8">
+        <v>0</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
       <c r="AC50" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD50" s="8"/>
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -3114,90 +3151,90 @@
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="K55" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="P55" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="U55" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
       <c r="Y55" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AC55" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U56" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S56" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U56" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="V56" s="7" t="s">
         <v>2</v>
@@ -3206,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z56" s="7" t="s">
         <v>2</v>
@@ -3215,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD56" s="7" t="s">
         <v>2</v>
@@ -3228,43 +3265,43 @@
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
       <c r="F57" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N57" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S57" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V57" s="8" t="s">
         <v>3</v>
@@ -3273,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="Y57" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z57" s="8" t="s">
         <v>3</v>
@@ -3282,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD57" s="8" t="s">
         <v>3</v>
@@ -3295,7 +3332,7 @@
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
       <c r="F58" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G58" s="8">
         <v>5</v>
@@ -3307,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L58" s="8">
         <v>5</v>
@@ -3319,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q58" s="8">
         <v>5</v>
@@ -3331,28 +3368,28 @@
         <v>6</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W58" s="5">
         <v>3</v>
       </c>
       <c r="Y58" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z58" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA58" s="5">
         <v>3</v>
       </c>
       <c r="AC58" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD58" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE58" s="5">
         <v>3</v>
@@ -3360,13 +3397,13 @@
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G59" s="8">
         <v>-5</v>
@@ -3378,7 +3415,7 @@
         <v>-6</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L59" s="8">
         <v>-5</v>
@@ -3390,7 +3427,7 @@
         <v>-6</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q59" s="8">
         <v>-5</v>
@@ -3402,28 +3439,28 @@
         <v>-6</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W59" s="5">
         <v>3</v>
       </c>
       <c r="Y59" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z59" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA59" s="5">
         <v>3</v>
       </c>
       <c r="AC59" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD59" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE59" s="5">
         <v>3</v>
@@ -3431,13 +3468,13 @@
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G60" s="8">
         <v>5</v>
@@ -3449,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L60" s="8">
         <v>5</v>
@@ -3459,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q60" s="8">
         <v>5</v>
@@ -3469,26 +3506,26 @@
         <v>5</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V60" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W60" s="5" t="n">
-        <v>0.0</v>
+        <v>72</v>
+      </c>
+      <c r="W60" s="5">
+        <v>0</v>
       </c>
       <c r="Y60" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA60" s="5"/>
       <c r="AC60" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE60" s="5"/>
     </row>
@@ -3496,7 +3533,7 @@
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
       <c r="F61" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G61" s="8">
         <v>1</v>
@@ -3508,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8">
@@ -3518,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q61" s="8"/>
       <c r="R61" s="8">
@@ -3528,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V61" s="8" t="s">
         <v>4</v>
@@ -3537,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="Y61" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z61" s="8" t="s">
         <v>4</v>
@@ -3546,7 +3583,7 @@
         <v>9</v>
       </c>
       <c r="AC61" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD61" s="8" t="s">
         <v>4</v>
@@ -3559,7 +3596,7 @@
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
       <c r="F62" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G62" s="8">
         <v>-100</v>
@@ -3571,40 +3608,40 @@
         <v>0</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="5"/>
       <c r="P62" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="5"/>
       <c r="U62" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V62" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W62" s="5">
         <v>-4</v>
       </c>
       <c r="Y62" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z62" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA62" s="5">
         <v>-4</v>
       </c>
       <c r="AC62" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD62" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE62" s="5">
         <v>-4</v>
@@ -3612,13 +3649,13 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -3630,7 +3667,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L63" s="5">
         <v>1</v>
@@ -3642,7 +3679,7 @@
         <v>6</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q63" s="5">
         <v>1</v>
@@ -3654,29 +3691,29 @@
         <v>6</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V63" s="8"/>
-      <c r="W63" s="8" t="n">
-        <v>0.0</v>
+      <c r="W63" s="8">
+        <v>0</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
       <c r="AC63" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD63" s="8"/>
       <c r="AE63" s="8"/>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3699,90 +3736,90 @@
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="K68" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="P68" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
       <c r="U68" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="Y68" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
       <c r="AC68" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U69" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U69" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="V69" s="7" t="s">
         <v>2</v>
@@ -3791,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z69" s="7" t="s">
         <v>2</v>
@@ -3800,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD69" s="7" t="s">
         <v>2</v>
@@ -3813,43 +3850,43 @@
       <c r="B70" s="3"/>
       <c r="D70" s="3"/>
       <c r="F70" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V70" s="8" t="s">
         <v>3</v>
@@ -3858,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="Y70" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z70" s="8" t="s">
         <v>3</v>
@@ -3867,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="AC70" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD70" s="8" t="s">
         <v>3</v>
@@ -3880,7 +3917,7 @@
       <c r="B71" s="3"/>
       <c r="D71" s="3"/>
       <c r="F71" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G71" s="8">
         <v>5</v>
@@ -3892,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L71" s="8">
         <v>5</v>
@@ -3904,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q71" s="8">
         <v>5</v>
@@ -3916,28 +3953,28 @@
         <v>6</v>
       </c>
       <c r="U71" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W71" s="5">
         <v>3</v>
       </c>
       <c r="Y71" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z71" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA71" s="5">
         <v>3</v>
       </c>
       <c r="AC71" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD71" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE71" s="5">
         <v>3</v>
@@ -3945,13 +3982,13 @@
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G72" s="8">
         <v>-5</v>
@@ -3963,7 +4000,7 @@
         <v>-6</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L72" s="8">
         <v>-5</v>
@@ -3975,7 +4012,7 @@
         <v>-6</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q72" s="8">
         <v>-5</v>
@@ -3987,28 +4024,28 @@
         <v>-6</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W72" s="5">
         <v>3</v>
       </c>
       <c r="Y72" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z72" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA72" s="5">
         <v>3</v>
       </c>
       <c r="AC72" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD72" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE72" s="5">
         <v>3</v>
@@ -4016,13 +4053,13 @@
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G73" s="8">
         <v>5</v>
@@ -4034,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L73" s="8">
         <v>5</v>
@@ -4044,7 +4081,7 @@
         <v>5</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q73" s="8">
         <v>5</v>
@@ -4054,26 +4091,26 @@
         <v>5</v>
       </c>
       <c r="U73" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W73" s="5" t="n">
-        <v>0.0</v>
+        <v>72</v>
+      </c>
+      <c r="W73" s="5">
+        <v>0</v>
       </c>
       <c r="Y73" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA73" s="5"/>
       <c r="AC73" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE73" s="5"/>
     </row>
@@ -4081,7 +4118,7 @@
       <c r="B74" s="3"/>
       <c r="D74" s="3"/>
       <c r="F74" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G74" s="8">
         <v>1</v>
@@ -4093,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8">
@@ -4103,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8">
@@ -4113,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="U74" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V74" s="8" t="s">
         <v>4</v>
@@ -4122,7 +4159,7 @@
         <v>9</v>
       </c>
       <c r="Y74" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z74" s="8" t="s">
         <v>4</v>
@@ -4131,7 +4168,7 @@
         <v>9</v>
       </c>
       <c r="AC74" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD74" s="8" t="s">
         <v>4</v>
@@ -4144,7 +4181,7 @@
       <c r="B75" s="3"/>
       <c r="D75" s="3"/>
       <c r="F75" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G75" s="8">
         <v>-100</v>
@@ -4156,40 +4193,40 @@
         <v>0</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="5"/>
       <c r="P75" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="5"/>
       <c r="U75" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W75" s="5">
         <v>-4</v>
       </c>
       <c r="Y75" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA75" s="5">
         <v>-4</v>
       </c>
       <c r="AC75" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE75" s="5">
         <v>-4</v>
@@ -4197,13 +4234,13 @@
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
@@ -4215,7 +4252,7 @@
         <v>6</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L76" s="5">
         <v>1</v>
@@ -4227,7 +4264,7 @@
         <v>6</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q76" s="5">
         <v>1</v>
@@ -4239,29 +4276,29 @@
         <v>6</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V76" s="8"/>
-      <c r="W76" s="8" t="n">
-        <v>0.0</v>
+      <c r="W76" s="8">
+        <v>0</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8"/>
       <c r="AC76" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD76" s="8"/>
       <c r="AE76" s="8"/>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -4327,67 +4364,67 @@
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="P84" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="Y84" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z84" s="10"/>
       <c r="AA84" s="10"/>
       <c r="AC84" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AD84" s="10"/>
       <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L85" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M85" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q85" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S85" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Z85" s="7" t="s">
         <v>2</v>
@@ -4396,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD85" s="7" t="s">
         <v>2</v>
@@ -4407,31 +4444,31 @@
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K86" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S86" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y86" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z86" s="8" t="s">
         <v>3</v>
@@ -4440,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD86" s="8" t="s">
         <v>3</v>
@@ -4451,7 +4488,7 @@
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K87" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L87" s="8">
         <v>5</v>
@@ -4463,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q87" s="8">
         <v>5</v>
@@ -4475,19 +4512,19 @@
         <v>6</v>
       </c>
       <c r="Y87" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z87" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA87" s="5">
         <v>3</v>
       </c>
       <c r="AC87" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD87" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE87" s="5">
         <v>3</v>
@@ -4495,13 +4532,13 @@
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L88" s="8">
         <v>-5</v>
@@ -4513,7 +4550,7 @@
         <v>-6</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q88" s="8">
         <v>-5</v>
@@ -4525,19 +4562,19 @@
         <v>-6</v>
       </c>
       <c r="Y88" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z88" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA88" s="5">
         <v>3</v>
       </c>
       <c r="AC88" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD88" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE88" s="5">
         <v>3</v>
@@ -4545,13 +4582,13 @@
     </row>
     <row r="89" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L89" s="8">
         <v>5</v>
@@ -4561,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q89" s="8">
         <v>5</v>
@@ -4571,23 +4608,23 @@
         <v>5</v>
       </c>
       <c r="Y89" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z89" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA89" s="5"/>
       <c r="AC89" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE89" s="5"/>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K90" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8">
@@ -4597,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q90" s="8"/>
       <c r="R90" s="8">
@@ -4607,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="Y90" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z90" s="8" t="s">
         <v>4</v>
@@ -4616,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="AC90" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD90" s="8" t="s">
         <v>4</v>
@@ -4627,31 +4664,31 @@
     </row>
     <row r="91" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K91" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="5"/>
       <c r="P91" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
       <c r="S91" s="5"/>
       <c r="Y91" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z91" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA91" s="5">
         <v>-4</v>
       </c>
       <c r="AC91" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD91" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE91" s="5">
         <v>-4</v>
@@ -4659,7 +4696,7 @@
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K92" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L92" s="5">
         <v>1</v>
@@ -4671,7 +4708,7 @@
         <v>6</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q92" s="5">
         <v>1</v>
@@ -4683,12 +4720,12 @@
         <v>6</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
       <c r="AC92" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD92" s="8"/>
       <c r="AE92" s="8"/>
@@ -4706,67 +4743,67 @@
     </row>
     <row r="96" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="P96" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
       <c r="Y96" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z96" s="10"/>
       <c r="AA96" s="10"/>
       <c r="AC96" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AD96" s="10"/>
       <c r="AE96" s="10"/>
     </row>
     <row r="97" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L97" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M97" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N97" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P97" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q97" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R97" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R97" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Z97" s="7" t="s">
         <v>2</v>
@@ -4775,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="AC97" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD97" s="7" t="s">
         <v>2</v>
@@ -4786,31 +4823,31 @@
     </row>
     <row r="98" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K98" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N98" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S98" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y98" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z98" s="8" t="s">
         <v>3</v>
@@ -4819,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="AC98" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AD98" s="8" t="s">
         <v>3</v>
@@ -4830,7 +4867,7 @@
     </row>
     <row r="99" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K99" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L99" s="8">
         <v>5</v>
@@ -4842,7 +4879,7 @@
         <v>6</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q99" s="8">
         <v>5</v>
@@ -4854,19 +4891,19 @@
         <v>6</v>
       </c>
       <c r="Y99" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z99" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA99" s="5">
         <v>3</v>
       </c>
       <c r="AC99" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD99" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE99" s="5">
         <v>3</v>
@@ -4874,13 +4911,13 @@
     </row>
     <row r="100" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L100" s="8">
         <v>-5</v>
@@ -4892,7 +4929,7 @@
         <v>-6</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q100" s="8">
         <v>-5</v>
@@ -4904,19 +4941,19 @@
         <v>-6</v>
       </c>
       <c r="Y100" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z100" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA100" s="5">
         <v>3</v>
       </c>
       <c r="AC100" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD100" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE100" s="5">
         <v>3</v>
@@ -4924,13 +4961,13 @@
     </row>
     <row r="101" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L101" s="8">
         <v>5</v>
@@ -4940,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q101" s="8">
         <v>5</v>
@@ -4950,23 +4987,23 @@
         <v>5</v>
       </c>
       <c r="Y101" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z101" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA101" s="5"/>
       <c r="AC101" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD101" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE101" s="5"/>
     </row>
     <row r="102" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K102" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8">
@@ -4976,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q102" s="8"/>
       <c r="R102" s="8">
@@ -4986,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="Y102" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z102" s="8" t="s">
         <v>4</v>
@@ -4995,7 +5032,7 @@
         <v>9</v>
       </c>
       <c r="AC102" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD102" s="8" t="s">
         <v>4</v>
@@ -5006,31 +5043,31 @@
     </row>
     <row r="103" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K103" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="5"/>
       <c r="P103" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
       <c r="S103" s="5"/>
       <c r="Y103" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z103" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA103" s="5">
         <v>-4</v>
       </c>
       <c r="AC103" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AD103" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE103" s="5">
         <v>-4</v>
@@ -5038,7 +5075,7 @@
     </row>
     <row r="104" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K104" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L104" s="5">
         <v>1</v>
@@ -5050,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="P104" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q104" s="5">
         <v>1</v>
@@ -5062,12 +5099,12 @@
         <v>6</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8"/>
       <c r="AC104" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD104" s="8"/>
       <c r="AE104" s="8"/>
@@ -5085,13 +5122,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="AC84:AE84"/>
-    <mergeCell ref="AC96:AE96"/>
-    <mergeCell ref="Y96:AA96"/>
-    <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="AC68:AE68"/>
+    <mergeCell ref="P84:S84"/>
+    <mergeCell ref="P96:S96"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="P68:S68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K96:N96"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="U55:W55"/>
     <mergeCell ref="Y55:AA55"/>
     <mergeCell ref="AC55:AE55"/>
@@ -5107,28 +5159,13 @@
     <mergeCell ref="U29:W29"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="P84:S84"/>
-    <mergeCell ref="P96:S96"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="P68:S68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="AC84:AE84"/>
+    <mergeCell ref="AC96:AE96"/>
+    <mergeCell ref="Y96:AA96"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="AC68:AE68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
